--- a/21090　中原　残補講計画.xlsx
+++ b/21090　中原　残補講計画.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$56</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -831,31 +834,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,10 +1142,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="60" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1167,16 +1173,16 @@
         <v>21090</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="48">
+      <c r="D2" s="44">
         <v>3</v>
       </c>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="47" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1217,7 +1223,7 @@
         <f t="shared" si="0"/>
         <v>44633</v>
       </c>
-      <c r="K3" s="52"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="6"/>
@@ -1253,10 +1259,10 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K4" s="52"/>
+      <c r="K4" s="48"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="49" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -1283,7 +1289,7 @@
       <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" s="45"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
@@ -1307,7 +1313,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" s="45"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="17" t="s">
         <v>18</v>
       </c>
@@ -1327,7 +1333,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" s="45"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="17" t="s">
         <v>6</v>
       </c>
@@ -1347,7 +1353,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" s="45"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="17" t="s">
         <v>8</v>
       </c>
@@ -1367,7 +1373,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" s="45"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="17" t="s">
         <v>10</v>
       </c>
@@ -1388,7 +1394,7 @@
       <c r="N10" s="38"/>
     </row>
     <row r="11" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="46"/>
+      <c r="A11" s="51"/>
       <c r="B11" s="18" t="s">
         <v>11</v>
       </c>
@@ -1408,7 +1414,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="19" t="s">
@@ -1428,7 +1434,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" s="44"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
@@ -1446,7 +1452,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" s="44"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="19" t="s">
         <v>18</v>
       </c>
@@ -1464,7 +1470,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" s="44"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="19" t="s">
         <v>5</v>
       </c>
@@ -1482,7 +1488,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" s="45"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="17" t="s">
         <v>7</v>
       </c>
@@ -1500,7 +1506,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A17" s="45"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="17" t="s">
         <v>9</v>
       </c>
@@ -1518,7 +1524,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="46"/>
+      <c r="A18" s="51"/>
       <c r="B18" s="18" t="s">
         <v>11</v>
       </c>
@@ -1548,16 +1554,16 @@
         <v>21090</v>
       </c>
       <c r="C21" s="3"/>
-      <c r="D21" s="48">
+      <c r="D21" s="44">
         <v>3</v>
       </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="50"/>
-      <c r="K21" s="51" t="s">
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="47" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1599,7 +1605,7 @@
         <f t="shared" ref="J22" si="10">I22+1</f>
         <v>44640</v>
       </c>
-      <c r="K22" s="52"/>
+      <c r="K22" s="48"/>
     </row>
     <row r="23" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="6"/>
@@ -1635,10 +1641,10 @@
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="K23" s="52"/>
+      <c r="K23" s="48"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="49" t="s">
         <v>1</v>
       </c>
       <c r="B24" s="16" t="s">
@@ -1661,7 +1667,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A25" s="45"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="17" t="s">
         <v>17</v>
       </c>
@@ -1684,7 +1690,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A26" s="45"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="17" t="s">
         <v>18</v>
       </c>
@@ -1707,7 +1713,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A27" s="45"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="17" t="s">
         <v>6</v>
       </c>
@@ -1730,7 +1736,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A28" s="45"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="17" t="s">
         <v>8</v>
       </c>
@@ -1757,7 +1763,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A29" s="45"/>
+      <c r="A29" s="50"/>
       <c r="B29" s="17" t="s">
         <v>10</v>
       </c>
@@ -1780,7 +1786,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="46"/>
+      <c r="A30" s="51"/>
       <c r="B30" s="18" t="s">
         <v>11</v>
       </c>
@@ -1801,7 +1807,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B31" s="19" t="s">
@@ -1821,7 +1827,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A32" s="44"/>
+      <c r="A32" s="52"/>
       <c r="B32" s="19" t="s">
         <v>17</v>
       </c>
@@ -1839,7 +1845,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" s="44"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="19" t="s">
         <v>18</v>
       </c>
@@ -1857,7 +1863,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" s="44"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="19" t="s">
         <v>5</v>
       </c>
@@ -1875,7 +1881,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" s="45"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="17" t="s">
         <v>7</v>
       </c>
@@ -1893,7 +1899,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" s="45"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="17" t="s">
         <v>9</v>
       </c>
@@ -1911,7 +1917,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="46"/>
+      <c r="A37" s="51"/>
       <c r="B37" s="18" t="s">
         <v>11</v>
       </c>
@@ -1940,16 +1946,16 @@
         <v>21090</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="48">
+      <c r="D40" s="44">
         <v>3</v>
       </c>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="50"/>
-      <c r="K40" s="51" t="s">
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="47" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1991,7 +1997,7 @@
         <f t="shared" ref="J41" si="20">I41+1</f>
         <v>44647</v>
       </c>
-      <c r="K41" s="52"/>
+      <c r="K41" s="48"/>
     </row>
     <row r="42" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="6"/>
@@ -2027,10 +2033,10 @@
         <f t="shared" si="21"/>
         <v>1</v>
       </c>
-      <c r="K42" s="52"/>
+      <c r="K42" s="48"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="49" t="s">
         <v>1</v>
       </c>
       <c r="B43" s="16" t="s">
@@ -2052,7 +2058,7 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" s="45"/>
+      <c r="A44" s="50"/>
       <c r="B44" s="17" t="s">
         <v>17</v>
       </c>
@@ -2072,7 +2078,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45" s="45"/>
+      <c r="A45" s="50"/>
       <c r="B45" s="17" t="s">
         <v>18</v>
       </c>
@@ -2093,7 +2099,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A46" s="45"/>
+      <c r="A46" s="50"/>
       <c r="B46" s="17" t="s">
         <v>6</v>
       </c>
@@ -2114,7 +2120,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47" s="45"/>
+      <c r="A47" s="50"/>
       <c r="B47" s="17" t="s">
         <v>8</v>
       </c>
@@ -2135,7 +2141,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" s="45"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="17" t="s">
         <v>10</v>
       </c>
@@ -2158,7 +2164,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="46"/>
+      <c r="A49" s="51"/>
       <c r="B49" s="18" t="s">
         <v>11</v>
       </c>
@@ -2181,7 +2187,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="19" t="s">
@@ -2201,7 +2207,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A51" s="44"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="19" t="s">
         <v>17</v>
       </c>
@@ -2219,7 +2225,7 @@
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52" s="44"/>
+      <c r="A52" s="52"/>
       <c r="B52" s="19" t="s">
         <v>18</v>
       </c>
@@ -2237,7 +2243,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A53" s="44"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="19" t="s">
         <v>5</v>
       </c>
@@ -2255,7 +2261,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A54" s="45"/>
+      <c r="A54" s="50"/>
       <c r="B54" s="17" t="s">
         <v>7</v>
       </c>
@@ -2273,7 +2279,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A55" s="45"/>
+      <c r="A55" s="50"/>
       <c r="B55" s="17" t="s">
         <v>9</v>
       </c>
@@ -2291,7 +2297,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="46"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="18" t="s">
         <v>11</v>
       </c>
@@ -2313,21 +2319,24 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A50:A56"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="A43:A49"/>
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="A5:A11"/>
     <mergeCell ref="A12:A18"/>
     <mergeCell ref="D21:J21"/>
     <mergeCell ref="K21:K23"/>
-    <mergeCell ref="A50:A56"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:K42"/>
-    <mergeCell ref="A43:A49"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="37" max="10" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>